--- a/output/students_high.xlsx
+++ b/output/students_high.xlsx
@@ -6045,7 +6045,7 @@
       </c>
       <c r="C8" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D8" s="18" t="inlineStr">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="I16" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J16" s="18" t="n"/>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="C17" s="25" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D17" s="24" t="n"/>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="G21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H21" s="18" t="n"/>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="K21" s="19" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="C22" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D22" s="18" t="n"/>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="G8" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H8" s="16" t="n"/>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="G23" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H23" s="16" t="n"/>
@@ -7727,7 +7727,7 @@
       </c>
       <c r="C24" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D24" s="18" t="n"/>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="E32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F32" s="18" t="n"/>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="E40" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F40" s="18" t="n"/>
@@ -8134,7 +8134,7 @@
       </c>
       <c r="I41" s="25" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J41" s="24" t="n"/>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="K48" s="19" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="C49" s="25" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D49" s="24" t="n"/>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="G49" s="25" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H49" s="24" t="n"/>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="K5" s="19" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="K6" s="19" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="C7" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D7" s="18" t="inlineStr">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="E7" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F7" s="18" t="inlineStr">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="G7" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H7" s="18" t="n"/>
@@ -8914,7 +8914,7 @@
       </c>
       <c r="C15" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D15" s="18" t="n"/>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="I15" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J15" s="16" t="n"/>
@@ -9064,7 +9064,7 @@
       </c>
       <c r="C21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D21" s="18" t="n"/>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="G21" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H21" s="18" t="n"/>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="K21" s="19" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -9262,7 +9262,7 @@
       </c>
       <c r="I29" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J29" s="16" t="n"/>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="C32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D32" s="18" t="n"/>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="G32" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H32" s="18" t="n"/>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="I39" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J39" s="18" t="n"/>
@@ -9528,7 +9528,7 @@
       </c>
       <c r="G41" s="25" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H41" s="24" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="I47" s="20" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J47" s="18" t="n"/>
@@ -9720,7 +9720,7 @@
       </c>
       <c r="G49" s="25" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H49" s="24" t="n"/>
